--- a/PyData Agenda.xlsx
+++ b/PyData Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samia/Downloads/PyDataLondon2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C3DBB7-7179-F745-9CEB-25F13D3AB101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8CB9FA-48A9-D341-9B71-68742616B6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" xr2:uid="{FC6D174D-310B-8440-9464-93566CD3BB7C}"/>
   </bookViews>
@@ -446,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -467,6 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,7 +791,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,7 +898,7 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
